--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABC9DC-3941-40D8-BC9A-D58386A3CA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCA78C-346B-44CF-A5CE-B0962AD7DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_features_text" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="888">
   <si>
     <t>Metadata:</t>
   </si>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000DAD0-45D8-4F57-BB32-ED68B84F1CCC}">
   <dimension ref="A1:F910"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B908" sqref="B2:B908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21317,8 +21317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF617F07-646C-48AF-866C-AB0475963108}">
   <dimension ref="B1:N307"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L268"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26706,7 +26706,7 @@
         <v>541</v>
       </c>
       <c r="C178">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D178">
         <v>8</v>
@@ -26735,7 +26735,7 @@
         <v>543</v>
       </c>
       <c r="C179">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -26764,7 +26764,7 @@
         <v>534</v>
       </c>
       <c r="C180">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -26793,7 +26793,7 @@
         <v>536</v>
       </c>
       <c r="C181">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D181">
         <v>8</v>
@@ -26822,7 +26822,7 @@
         <v>539</v>
       </c>
       <c r="C182">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -29365,6 +29365,15 @@
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>791</v>
+      </c>
+      <c r="C269">
+        <v>267</v>
+      </c>
+      <c r="D269">
+        <v>11</v>
+      </c>
       <c r="F269" t="s">
         <v>883</v>
       </c>
@@ -29383,7 +29392,7 @@
         <v>794</v>
       </c>
       <c r="C270">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D270">
         <v>11</v>
@@ -29412,7 +29421,7 @@
         <v>797</v>
       </c>
       <c r="C271">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D271">
         <v>11</v>
@@ -29441,7 +29450,7 @@
         <v>799</v>
       </c>
       <c r="C272">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D272">
         <v>11</v>
@@ -29470,7 +29479,7 @@
         <v>802</v>
       </c>
       <c r="C273">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D273">
         <v>11</v>
@@ -29499,7 +29508,7 @@
         <v>805</v>
       </c>
       <c r="C274">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D274">
         <v>11</v>
@@ -29528,7 +29537,7 @@
         <v>808</v>
       </c>
       <c r="C275">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D275">
         <v>11</v>
@@ -29557,7 +29566,7 @@
         <v>811</v>
       </c>
       <c r="C276">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D276">
         <v>11</v>
@@ -29586,7 +29595,7 @@
         <v>814</v>
       </c>
       <c r="C277">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277">
         <v>11</v>
@@ -29615,7 +29624,7 @@
         <v>816</v>
       </c>
       <c r="C278">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D278">
         <v>11</v>
@@ -29644,7 +29653,7 @@
         <v>819</v>
       </c>
       <c r="C279">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D279">
         <v>11</v>
@@ -29673,7 +29682,7 @@
         <v>822</v>
       </c>
       <c r="C280">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D280">
         <v>11</v>
@@ -29702,7 +29711,7 @@
         <v>825</v>
       </c>
       <c r="C281">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D281">
         <v>11</v>
@@ -29731,7 +29740,7 @@
         <v>828</v>
       </c>
       <c r="C282">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D282">
         <v>11</v>
@@ -29760,7 +29769,7 @@
         <v>831</v>
       </c>
       <c r="C283">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D283">
         <v>11</v>
@@ -29792,7 +29801,7 @@
         <v>833</v>
       </c>
       <c r="C284">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D284">
         <v>11</v>
@@ -29821,7 +29830,7 @@
         <v>842</v>
       </c>
       <c r="C285">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D285">
         <v>11</v>
@@ -29850,7 +29859,7 @@
         <v>844</v>
       </c>
       <c r="C286">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D286">
         <v>11</v>
@@ -29879,7 +29888,7 @@
         <v>847</v>
       </c>
       <c r="C287">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D287">
         <v>11</v>
@@ -29908,7 +29917,7 @@
         <v>849</v>
       </c>
       <c r="C288">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D288">
         <v>11</v>
@@ -29937,7 +29946,7 @@
         <v>853</v>
       </c>
       <c r="C289">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -29960,7 +29969,7 @@
         <v>855</v>
       </c>
       <c r="C290">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D290">
         <v>12</v>
@@ -29989,7 +29998,7 @@
         <v>857</v>
       </c>
       <c r="C291">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D291">
         <v>12</v>
@@ -30018,7 +30027,7 @@
         <v>867</v>
       </c>
       <c r="C292">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D292">
         <v>12</v>
@@ -30047,7 +30056,7 @@
         <v>872</v>
       </c>
       <c r="C293">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D293">
         <v>12</v>
@@ -30076,7 +30085,7 @@
         <v>876</v>
       </c>
       <c r="C294">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D294">
         <v>12</v>
@@ -30105,7 +30114,7 @@
         <v>878</v>
       </c>
       <c r="C295">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D295">
         <v>12</v>
@@ -30134,7 +30143,7 @@
         <v>880</v>
       </c>
       <c r="C296">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D296">
         <v>12</v>
@@ -30163,7 +30172,7 @@
         <v>882</v>
       </c>
       <c r="C297">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D297">
         <v>12</v>
@@ -30192,7 +30201,7 @@
         <v>885</v>
       </c>
       <c r="C298">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D298">
         <v>12</v>
@@ -30224,7 +30233,7 @@
         <v>888</v>
       </c>
       <c r="C299">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D299">
         <v>12</v>
@@ -30256,7 +30265,7 @@
         <v>890</v>
       </c>
       <c r="C300">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D300">
         <v>12</v>
@@ -30281,6 +30290,12 @@
       </c>
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>893</v>
+      </c>
+      <c r="C301">
+        <v>299</v>
+      </c>
       <c r="F301" t="s">
         <v>849</v>
       </c>
@@ -30299,7 +30314,7 @@
         <v>895</v>
       </c>
       <c r="C302">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D302">
         <v>12</v>
@@ -30328,7 +30343,7 @@
         <v>897</v>
       </c>
       <c r="C303">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D303">
         <v>12</v>
@@ -30357,7 +30372,7 @@
         <v>899</v>
       </c>
       <c r="C304">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D304">
         <v>12</v>
@@ -30386,7 +30401,7 @@
         <v>901</v>
       </c>
       <c r="C305">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D305">
         <v>12</v>
@@ -30415,7 +30430,7 @@
         <v>903</v>
       </c>
       <c r="C306">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D306">
         <v>12</v>
@@ -30444,7 +30459,7 @@
         <v>905</v>
       </c>
       <c r="C307">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D307">
         <v>12</v>
@@ -30478,17 +30493,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29A042-3862-47FE-83B9-65F533A211F7}">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -35760,7 +35771,7 @@
         <v>541</v>
       </c>
       <c r="B178">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -35789,7 +35800,7 @@
         <v>543</v>
       </c>
       <c r="B179">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -35818,7 +35829,7 @@
         <v>534</v>
       </c>
       <c r="B180">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -35847,7 +35858,7 @@
         <v>536</v>
       </c>
       <c r="B181">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -35876,7 +35887,7 @@
         <v>539</v>
       </c>
       <c r="B182">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -38413,6 +38424,1125 @@
       </c>
       <c r="J268" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>791</v>
+      </c>
+      <c r="B269">
+        <v>267</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+      <c r="E269" t="s">
+        <v>883</v>
+      </c>
+      <c r="F269" t="s">
+        <v>866</v>
+      </c>
+      <c r="G269">
+        <v>9</v>
+      </c>
+      <c r="J269" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>794</v>
+      </c>
+      <c r="B270">
+        <v>268</v>
+      </c>
+      <c r="C270">
+        <v>11</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>883</v>
+      </c>
+      <c r="F270" t="s">
+        <v>866</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>797</v>
+      </c>
+      <c r="B271">
+        <v>269</v>
+      </c>
+      <c r="C271">
+        <v>11</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271" t="s">
+        <v>883</v>
+      </c>
+      <c r="F271" t="s">
+        <v>866</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>799</v>
+      </c>
+      <c r="B272">
+        <v>270</v>
+      </c>
+      <c r="C272">
+        <v>11</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>883</v>
+      </c>
+      <c r="F272" t="s">
+        <v>866</v>
+      </c>
+      <c r="G272">
+        <v>5</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>802</v>
+      </c>
+      <c r="B273">
+        <v>271</v>
+      </c>
+      <c r="C273">
+        <v>11</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>883</v>
+      </c>
+      <c r="F273" t="s">
+        <v>866</v>
+      </c>
+      <c r="G273">
+        <v>9</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>805</v>
+      </c>
+      <c r="B274">
+        <v>272</v>
+      </c>
+      <c r="C274">
+        <v>11</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274" t="s">
+        <v>883</v>
+      </c>
+      <c r="F274" t="s">
+        <v>866</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>808</v>
+      </c>
+      <c r="B275">
+        <v>273</v>
+      </c>
+      <c r="C275">
+        <v>11</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275" t="s">
+        <v>883</v>
+      </c>
+      <c r="F275" t="s">
+        <v>866</v>
+      </c>
+      <c r="G275">
+        <v>7</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>811</v>
+      </c>
+      <c r="B276">
+        <v>274</v>
+      </c>
+      <c r="C276">
+        <v>11</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276" t="s">
+        <v>883</v>
+      </c>
+      <c r="F276" t="s">
+        <v>866</v>
+      </c>
+      <c r="G276">
+        <v>5</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>814</v>
+      </c>
+      <c r="B277">
+        <v>275</v>
+      </c>
+      <c r="C277">
+        <v>11</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>883</v>
+      </c>
+      <c r="F277" t="s">
+        <v>866</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>816</v>
+      </c>
+      <c r="B278">
+        <v>276</v>
+      </c>
+      <c r="C278">
+        <v>11</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
+        <v>883</v>
+      </c>
+      <c r="F278" t="s">
+        <v>866</v>
+      </c>
+      <c r="G278">
+        <v>5</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>819</v>
+      </c>
+      <c r="B279">
+        <v>277</v>
+      </c>
+      <c r="C279">
+        <v>11</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>883</v>
+      </c>
+      <c r="F279" t="s">
+        <v>866</v>
+      </c>
+      <c r="G279">
+        <v>15</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>822</v>
+      </c>
+      <c r="B280">
+        <v>278</v>
+      </c>
+      <c r="C280">
+        <v>11</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>883</v>
+      </c>
+      <c r="F280" t="s">
+        <v>866</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>825</v>
+      </c>
+      <c r="B281">
+        <v>279</v>
+      </c>
+      <c r="C281">
+        <v>11</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>883</v>
+      </c>
+      <c r="F281" t="s">
+        <v>866</v>
+      </c>
+      <c r="G281">
+        <v>9</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>828</v>
+      </c>
+      <c r="B282">
+        <v>280</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>883</v>
+      </c>
+      <c r="F282" t="s">
+        <v>866</v>
+      </c>
+      <c r="G282">
+        <v>15</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>831</v>
+      </c>
+      <c r="B283">
+        <v>281</v>
+      </c>
+      <c r="C283">
+        <v>11</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>885</v>
+      </c>
+      <c r="F283" t="s">
+        <v>865</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>754</v>
+      </c>
+      <c r="K283" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>833</v>
+      </c>
+      <c r="B284">
+        <v>282</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>885</v>
+      </c>
+      <c r="F284" t="s">
+        <v>865</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>756</v>
+      </c>
+      <c r="K284" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>842</v>
+      </c>
+      <c r="B285">
+        <v>283</v>
+      </c>
+      <c r="C285">
+        <v>11</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>885</v>
+      </c>
+      <c r="F285" t="s">
+        <v>865</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>844</v>
+      </c>
+      <c r="B286">
+        <v>284</v>
+      </c>
+      <c r="C286">
+        <v>11</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>885</v>
+      </c>
+      <c r="F286" t="s">
+        <v>865</v>
+      </c>
+      <c r="G286">
+        <v>6</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>847</v>
+      </c>
+      <c r="B287">
+        <v>285</v>
+      </c>
+      <c r="C287">
+        <v>11</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>885</v>
+      </c>
+      <c r="F287" t="s">
+        <v>865</v>
+      </c>
+      <c r="G287">
+        <v>10</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>849</v>
+      </c>
+      <c r="B288">
+        <v>286</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288" t="s">
+        <v>885</v>
+      </c>
+      <c r="F288" t="s">
+        <v>865</v>
+      </c>
+      <c r="G288">
+        <v>14</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>853</v>
+      </c>
+      <c r="B289">
+        <v>287</v>
+      </c>
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>849</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>855</v>
+      </c>
+      <c r="B290">
+        <v>288</v>
+      </c>
+      <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290" t="s">
+        <v>849</v>
+      </c>
+      <c r="F290" t="s">
+        <v>863</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>857</v>
+      </c>
+      <c r="B291">
+        <v>289</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>849</v>
+      </c>
+      <c r="F291" t="s">
+        <v>863</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>867</v>
+      </c>
+      <c r="B292">
+        <v>290</v>
+      </c>
+      <c r="C292">
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s">
+        <v>849</v>
+      </c>
+      <c r="F292" t="s">
+        <v>863</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>872</v>
+      </c>
+      <c r="B293">
+        <v>291</v>
+      </c>
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+      <c r="E293" t="s">
+        <v>849</v>
+      </c>
+      <c r="F293" t="s">
+        <v>863</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>876</v>
+      </c>
+      <c r="B294">
+        <v>292</v>
+      </c>
+      <c r="C294">
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294" t="s">
+        <v>849</v>
+      </c>
+      <c r="F294" t="s">
+        <v>863</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>878</v>
+      </c>
+      <c r="B295">
+        <v>293</v>
+      </c>
+      <c r="C295">
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>849</v>
+      </c>
+      <c r="F295" t="s">
+        <v>863</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>880</v>
+      </c>
+      <c r="B296">
+        <v>294</v>
+      </c>
+      <c r="C296">
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296" t="s">
+        <v>849</v>
+      </c>
+      <c r="F296" t="s">
+        <v>863</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>882</v>
+      </c>
+      <c r="B297">
+        <v>295</v>
+      </c>
+      <c r="C297">
+        <v>12</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>849</v>
+      </c>
+      <c r="F297" t="s">
+        <v>863</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>885</v>
+      </c>
+      <c r="B298">
+        <v>296</v>
+      </c>
+      <c r="C298">
+        <v>12</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>849</v>
+      </c>
+      <c r="F298" t="s">
+        <v>863</v>
+      </c>
+      <c r="G298">
+        <v>2</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298" t="s">
+        <v>800</v>
+      </c>
+      <c r="K298" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>888</v>
+      </c>
+      <c r="B299">
+        <v>297</v>
+      </c>
+      <c r="C299">
+        <v>12</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299" t="s">
+        <v>849</v>
+      </c>
+      <c r="F299" t="s">
+        <v>864</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299" t="s">
+        <v>66</v>
+      </c>
+      <c r="K299" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>890</v>
+      </c>
+      <c r="B300">
+        <v>298</v>
+      </c>
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>849</v>
+      </c>
+      <c r="F300" t="s">
+        <v>863</v>
+      </c>
+      <c r="G300">
+        <v>18</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>893</v>
+      </c>
+      <c r="B301">
+        <v>299</v>
+      </c>
+      <c r="E301" t="s">
+        <v>849</v>
+      </c>
+      <c r="F301" t="s">
+        <v>863</v>
+      </c>
+      <c r="G301">
+        <v>20</v>
+      </c>
+      <c r="J301" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>895</v>
+      </c>
+      <c r="B302">
+        <v>300</v>
+      </c>
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>807</v>
+      </c>
+      <c r="F302" t="s">
+        <v>865</v>
+      </c>
+      <c r="G302">
+        <v>2</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>897</v>
+      </c>
+      <c r="B303">
+        <v>301</v>
+      </c>
+      <c r="C303">
+        <v>12</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303" t="s">
+        <v>807</v>
+      </c>
+      <c r="F303" t="s">
+        <v>865</v>
+      </c>
+      <c r="G303">
+        <v>2</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>899</v>
+      </c>
+      <c r="B304">
+        <v>302</v>
+      </c>
+      <c r="C304">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304" t="s">
+        <v>807</v>
+      </c>
+      <c r="F304" t="s">
+        <v>865</v>
+      </c>
+      <c r="G304">
+        <v>2</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>901</v>
+      </c>
+      <c r="B305">
+        <v>303</v>
+      </c>
+      <c r="C305">
+        <v>12</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305" t="s">
+        <v>807</v>
+      </c>
+      <c r="F305" t="s">
+        <v>865</v>
+      </c>
+      <c r="G305">
+        <v>6</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>903</v>
+      </c>
+      <c r="B306">
+        <v>304</v>
+      </c>
+      <c r="C306">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306" t="s">
+        <v>807</v>
+      </c>
+      <c r="F306" t="s">
+        <v>865</v>
+      </c>
+      <c r="G306">
+        <v>10</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>905</v>
+      </c>
+      <c r="B307">
+        <v>305</v>
+      </c>
+      <c r="C307">
+        <v>12</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307" t="s">
+        <v>807</v>
+      </c>
+      <c r="F307" t="s">
+        <v>865</v>
+      </c>
+      <c r="G307">
+        <v>14</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741A1C4-E07D-4CFE-8145-3CD60D673A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5C1A5-B791-4FB8-8CEC-9CF1E1BF89D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features_list" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="881">
   <si>
     <t>Metadata:</t>
   </si>
@@ -2671,6 +2671,9 @@
   </si>
   <si>
     <t>NOTES:</t>
+  </si>
+  <si>
+    <t>figh</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2780,14 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{581F8D43-91C3-4934-AAB2-DF443FB59E02}" name="Table2" displayName="Table2" ref="A1:J307" totalsRowShown="0">
-  <autoFilter ref="A1:J307" xr:uid="{581F8D43-91C3-4934-AAB2-DF443FB59E02}"/>
+  <autoFilter ref="A1:J307" xr:uid="{581F8D43-91C3-4934-AAB2-DF443FB59E02}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="5"/>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="11" xr3:uid="{7F2D1C90-1015-492A-99DD-277581E9724D}" name=" feature_id"/>
     <tableColumn id="2" xr3:uid="{C50FB54B-3D91-4D5B-8972-3D51810DA21B}" name=" feature_from_class"/>
@@ -3059,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000DAD0-45D8-4F57-BB32-ED68B84F1CCC}">
   <dimension ref="A1:F910"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21284,10 +21294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF617F07-646C-48AF-866C-AB0475963108}">
-  <dimension ref="A1:L307"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21304,7 +21314,7 @@
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -21339,7 +21349,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21365,7 +21375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21394,7 +21404,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21423,7 +21433,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21452,7 +21462,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21480,8 +21490,11 @@
       <c r="J6" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21513,7 +21526,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21542,7 +21555,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21571,7 +21584,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21600,7 +21613,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21632,7 +21645,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21661,7 +21674,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21690,7 +21703,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21719,7 +21732,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21745,7 +21758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21774,7 +21787,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21803,7 +21816,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21832,7 +21845,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21861,7 +21874,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21890,7 +21903,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21916,7 +21929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21945,7 +21958,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -21974,7 +21987,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22003,7 +22016,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -22032,7 +22045,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -22061,7 +22074,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -22090,7 +22103,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -22119,7 +22132,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -22151,7 +22164,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -22183,7 +22196,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -22215,7 +22228,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -22247,7 +22260,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -22273,7 +22286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -22302,7 +22315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -22334,7 +22347,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -22363,7 +22376,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -22389,7 +22402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -22418,7 +22431,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -22447,7 +22460,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -22476,7 +22489,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -22502,7 +22515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -22534,7 +22547,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -22563,7 +22576,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -22592,7 +22605,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -22618,7 +22631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -22644,7 +22657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -22670,7 +22683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -22699,7 +22712,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -22728,7 +22741,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -22757,7 +22770,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -22783,7 +22796,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -22812,7 +22825,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -22841,7 +22854,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -22870,7 +22883,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -22896,7 +22909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -22922,7 +22935,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -22948,7 +22961,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -22974,7 +22987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -23000,7 +23013,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -23026,7 +23039,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -23052,7 +23065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -23078,7 +23091,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -23107,7 +23120,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -23136,7 +23149,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -23165,7 +23178,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -23191,7 +23204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -23217,7 +23230,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -23243,7 +23256,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -23272,7 +23285,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -23301,7 +23314,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -23330,7 +23343,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -23356,7 +23369,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -23382,7 +23395,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -23408,7 +23421,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -23434,7 +23447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -23460,7 +23473,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -23486,7 +23499,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -23515,7 +23528,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -23541,7 +23554,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -23567,7 +23580,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -24102,7 +24115,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -24128,7 +24141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -24154,7 +24167,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -24183,7 +24196,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -24209,7 +24222,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -24235,7 +24248,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -24261,7 +24274,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -24287,7 +24300,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -24313,7 +24326,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -24339,7 +24352,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -24368,7 +24381,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -24394,7 +24407,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -24420,7 +24433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -24446,7 +24459,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -24472,7 +24485,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -24498,7 +24511,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -24524,7 +24537,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -24550,7 +24563,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -24576,7 +24589,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -24602,7 +24615,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -24628,7 +24641,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -24654,7 +24667,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -24680,7 +24693,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -24706,7 +24719,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -24732,7 +24745,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -24758,7 +24771,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -24784,7 +24797,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -24810,7 +24823,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -24836,7 +24849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -24862,7 +24875,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -24888,7 +24901,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -24914,7 +24927,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -24940,7 +24953,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -24966,7 +24979,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -24992,7 +25005,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -25018,7 +25031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -25044,7 +25057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -25070,7 +25083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -25096,7 +25109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -25122,7 +25135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -25148,7 +25161,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -25174,7 +25187,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -25203,7 +25216,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -25232,7 +25245,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -25261,7 +25274,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -25290,7 +25303,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -25316,7 +25329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -25345,7 +25358,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -25374,7 +25387,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -25400,7 +25413,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -25426,7 +25439,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -25452,7 +25465,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -25478,7 +25491,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -25507,7 +25520,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -25533,7 +25546,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -25559,7 +25572,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -25585,7 +25598,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -25611,7 +25624,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -25637,7 +25650,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -25663,7 +25676,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -25689,7 +25702,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -25715,7 +25728,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -25741,7 +25754,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -25767,7 +25780,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -25793,7 +25806,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -25819,7 +25832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -25845,7 +25858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -25871,7 +25884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -25897,7 +25910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -25923,7 +25936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -25949,7 +25962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -25978,7 +25991,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -26007,7 +26020,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -26036,7 +26049,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -26062,7 +26075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -26088,7 +26101,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -26114,7 +26127,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -26140,7 +26153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -26166,7 +26179,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -26192,7 +26205,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -26218,7 +26231,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -26244,7 +26257,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -26270,7 +26283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -26296,7 +26309,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -26322,7 +26335,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -26348,7 +26361,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -26374,7 +26387,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -26403,7 +26416,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -26429,7 +26442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -26455,7 +26468,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -26481,7 +26494,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -26507,7 +26520,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -26533,7 +26546,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -26559,7 +26572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -26585,7 +26598,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -26611,7 +26624,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -26637,7 +26650,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -26663,7 +26676,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -26689,7 +26702,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -26715,7 +26728,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -26741,7 +26754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -26764,7 +26777,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -26790,7 +26803,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -26816,7 +26829,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -26842,7 +26855,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -26868,7 +26881,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -26894,7 +26907,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -26920,7 +26933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -26946,7 +26959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -26972,7 +26985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -26998,7 +27011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -27024,7 +27037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -27050,7 +27063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -27076,7 +27089,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -27105,7 +27118,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -27131,7 +27144,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -27160,7 +27173,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -27189,7 +27202,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -27215,7 +27228,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -27241,7 +27254,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -27267,7 +27280,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -27293,7 +27306,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -27319,7 +27332,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -27345,7 +27358,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -27371,7 +27384,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -27397,7 +27410,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -27423,7 +27436,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -27452,7 +27465,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -27475,7 +27488,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -27501,7 +27514,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -27527,7 +27540,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -27553,7 +27566,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -27579,7 +27592,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -27605,7 +27618,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -27634,7 +27647,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -27663,7 +27676,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -27689,7 +27702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -27715,7 +27728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -27741,7 +27754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -27767,7 +27780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -27793,7 +27806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -27819,7 +27832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -27848,7 +27861,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -27877,7 +27890,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -27903,7 +27916,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -27929,7 +27942,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -27955,7 +27968,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -27984,7 +27997,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -28013,7 +28026,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -28039,7 +28052,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -28062,7 +28075,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -28088,7 +28101,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -28114,7 +28127,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -28140,7 +28153,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -28166,7 +28179,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -28192,7 +28205,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -28218,7 +28231,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -28244,7 +28257,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -28270,7 +28283,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -28296,7 +28309,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -28322,7 +28335,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -28348,7 +28361,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -28374,7 +28387,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -28400,7 +28413,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -28426,7 +28439,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -28452,7 +28465,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -28478,7 +28491,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -28504,7 +28517,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -28530,7 +28543,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -28556,7 +28569,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -28582,7 +28595,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -28608,7 +28621,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -28634,7 +28647,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -28660,7 +28673,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -28686,7 +28699,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -28712,7 +28725,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -28738,7 +28751,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -28764,7 +28777,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -28790,7 +28803,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -28816,7 +28829,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -28842,7 +28855,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -28868,7 +28881,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -28894,7 +28907,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -28923,7 +28936,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -28949,7 +28962,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -28975,7 +28988,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -29001,7 +29014,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -29027,7 +29040,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -29549,8 +29562,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37750,7 +37764,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I26"/>
+      <selection activeCell="A18" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37899,7 +37913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C2A960-F8A0-4080-979F-D89E63FD0EF6}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5C1A5-B791-4FB8-8CEC-9CF1E1BF89D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7519D9-7685-46FB-B5F2-BEB0CEC0235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2765,7 +2765,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}" name="Table5" displayName="Table5" ref="A1:F910" totalsRowShown="0">
-  <autoFilter ref="A1:F910" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}"/>
+  <autoFilter ref="A1:F910" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="5"/>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEE4E605-610E-4889-9D07-3E9345661F4C}" name="text_id"/>
     <tableColumn id="2" xr3:uid="{06620FB3-44A2-4479-8283-80AD80EE1B9B}" name=" feature_id"/>
@@ -3070,7 +3077,7 @@
   <dimension ref="A1:F910"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,7 +3110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3143,7 +3150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3163,7 +3170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3183,7 +3190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3223,7 +3230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3263,7 +3270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3363,7 +3370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3403,7 +3410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3463,7 +3470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3523,7 +3530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3603,7 +3610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3643,7 +3650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3663,7 +3670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3703,7 +3710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3723,7 +3730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3763,7 +3770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3823,7 +3830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3883,7 +3890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4143,7 +4150,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4203,7 +4210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4443,7 +4450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4483,7 +4490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4543,7 +4550,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4583,7 +4590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4603,7 +4610,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4623,7 +4630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4763,7 +4770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4803,7 +4810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4863,7 +4870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4903,7 +4910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5023,7 +5030,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5063,7 +5070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5143,7 +5150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5163,7 +5170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5183,7 +5190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5203,7 +5210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5303,7 +5310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5383,7 +5390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5423,7 +5430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5523,7 +5530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5543,7 +5550,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5563,7 +5570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5603,7 +5610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5643,7 +5650,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5743,7 +5750,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5763,7 +5770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5803,7 +5810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5823,7 +5830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5843,7 +5850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5863,7 +5870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5923,7 +5930,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5983,7 +5990,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6103,7 +6110,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6203,7 +6210,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6403,7 +6410,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6423,7 +6430,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6443,7 +6450,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6463,7 +6470,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6483,7 +6490,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6523,7 +6530,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6543,7 +6550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6583,7 +6590,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6603,7 +6610,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6683,7 +6690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6703,7 +6710,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6743,7 +6750,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6803,7 +6810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6843,7 +6850,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6863,7 +6870,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6903,7 +6910,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6943,7 +6950,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6963,7 +6970,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6983,7 +6990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7043,7 +7050,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7103,7 +7110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7123,7 +7130,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7143,7 +7150,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7163,7 +7170,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7203,7 +7210,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7223,7 +7230,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7263,7 +7270,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7303,7 +7310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7343,7 +7350,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7363,7 +7370,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7403,7 +7410,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7443,7 +7450,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7463,7 +7470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7483,7 +7490,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7503,7 +7510,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7523,7 +7530,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7543,7 +7550,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7563,7 +7570,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7603,7 +7610,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7623,7 +7630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7643,7 +7650,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7663,7 +7670,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7683,7 +7690,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7703,7 +7710,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7723,7 +7730,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7783,7 +7790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7823,7 +7830,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7843,7 +7850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7863,7 +7870,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7883,7 +7890,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7923,7 +7930,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7943,7 +7950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7963,7 +7970,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7983,7 +7990,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8003,7 +8010,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8023,7 +8030,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8063,7 +8070,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8083,7 +8090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8143,7 +8150,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8163,7 +8170,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8183,7 +8190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8203,7 +8210,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8223,7 +8230,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8243,7 +8250,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8263,7 +8270,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8283,7 +8290,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8363,7 +8370,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8383,7 +8390,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8403,7 +8410,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8423,7 +8430,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8443,7 +8450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8483,7 +8490,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8503,7 +8510,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8523,7 +8530,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8543,7 +8550,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8563,7 +8570,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8583,7 +8590,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8603,7 +8610,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8623,7 +8630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8643,7 +8650,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9523,7 +9530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9543,7 +9550,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9563,7 +9570,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9603,7 +9610,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9623,7 +9630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9643,7 +9650,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9663,7 +9670,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9683,7 +9690,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9703,7 +9710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9723,7 +9730,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9743,7 +9750,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9783,7 +9790,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9803,7 +9810,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9823,7 +9830,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9843,7 +9850,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9863,7 +9870,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9883,7 +9890,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9903,7 +9910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9923,7 +9930,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9943,7 +9950,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9963,7 +9970,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9983,7 +9990,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10003,7 +10010,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10023,7 +10030,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10043,7 +10050,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10063,7 +10070,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10083,7 +10090,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10143,7 +10150,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10163,7 +10170,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10183,7 +10190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10203,7 +10210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10223,7 +10230,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10243,7 +10250,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10263,7 +10270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10283,7 +10290,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10303,7 +10310,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10323,7 +10330,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10343,7 +10350,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10363,7 +10370,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10403,7 +10410,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10423,7 +10430,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10443,7 +10450,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10463,7 +10470,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10503,7 +10510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10523,7 +10530,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10543,7 +10550,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10563,7 +10570,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10603,7 +10610,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10623,7 +10630,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10663,7 +10670,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10683,7 +10690,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10743,7 +10750,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10763,7 +10770,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10783,7 +10790,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10803,7 +10810,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10823,7 +10830,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10863,7 +10870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -10883,7 +10890,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -10903,7 +10910,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -10923,7 +10930,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -10943,7 +10950,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -10963,7 +10970,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -10983,7 +10990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -11003,7 +11010,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -11023,7 +11030,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -11043,7 +11050,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -11063,7 +11070,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -11083,7 +11090,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -11103,7 +11110,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11123,7 +11130,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11143,7 +11150,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11163,7 +11170,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11183,7 +11190,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11203,7 +11210,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11223,7 +11230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11263,7 +11270,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11283,7 +11290,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11303,7 +11310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11323,7 +11330,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11343,7 +11350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11363,7 +11370,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11383,7 +11390,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11403,7 +11410,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11423,7 +11430,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11443,7 +11450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11463,7 +11470,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11483,7 +11490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11523,7 +11530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11543,7 +11550,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11603,7 +11610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11623,7 +11630,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11643,7 +11650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11663,7 +11670,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11683,7 +11690,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11703,7 +11710,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11723,7 +11730,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11743,7 +11750,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11763,7 +11770,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11783,7 +11790,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11803,7 +11810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11823,7 +11830,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11843,7 +11850,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11883,7 +11890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11903,7 +11910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11923,7 +11930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11943,7 +11950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11963,7 +11970,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11983,7 +11990,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -12003,7 +12010,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -12023,7 +12030,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -12043,7 +12050,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -12063,7 +12070,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -12083,7 +12090,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -12103,7 +12110,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -12123,7 +12130,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -12143,7 +12150,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -12163,7 +12170,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -12183,7 +12190,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -12203,7 +12210,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -12223,7 +12230,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -12243,7 +12250,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -12263,7 +12270,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -12283,7 +12290,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -12303,7 +12310,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -12323,7 +12330,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -12343,7 +12350,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -12363,7 +12370,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -12383,7 +12390,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -12403,7 +12410,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -12423,7 +12430,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -12443,7 +12450,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -12463,7 +12470,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -12483,7 +12490,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -12503,7 +12510,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -12523,7 +12530,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -12543,7 +12550,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12563,7 +12570,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12583,7 +12590,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12603,7 +12610,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12623,7 +12630,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12643,7 +12650,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12663,7 +12670,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12683,7 +12690,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12703,7 +12710,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12723,7 +12730,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12743,7 +12750,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12763,7 +12770,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12783,7 +12790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12803,7 +12810,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12823,7 +12830,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12843,7 +12850,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12863,7 +12870,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12883,7 +12890,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12903,7 +12910,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12923,7 +12930,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12963,7 +12970,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12983,7 +12990,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -13003,7 +13010,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -13023,7 +13030,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -13043,7 +13050,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -13063,7 +13070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -13083,7 +13090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -13103,7 +13110,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -13123,7 +13130,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -13143,7 +13150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -13163,7 +13170,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -13183,7 +13190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -13203,7 +13210,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -13223,7 +13230,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -13243,7 +13250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -13263,7 +13270,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -13283,7 +13290,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -13303,7 +13310,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -13343,7 +13350,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -13363,7 +13370,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -13383,7 +13390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -13423,7 +13430,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -13443,7 +13450,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -13463,7 +13470,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -13483,7 +13490,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -13503,7 +13510,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -13523,7 +13530,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -13543,7 +13550,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -13563,7 +13570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -13583,7 +13590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -13603,7 +13610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -13663,7 +13670,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -13683,7 +13690,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -13703,7 +13710,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -13743,7 +13750,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -13783,7 +13790,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -13803,7 +13810,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -13823,7 +13830,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -13843,7 +13850,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -13863,7 +13870,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -13883,7 +13890,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -13903,7 +13910,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -13923,7 +13930,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -13943,7 +13950,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
@@ -13963,7 +13970,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
@@ -13983,7 +13990,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -14003,7 +14010,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -14023,7 +14030,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -14043,7 +14050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -14063,7 +14070,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -14083,7 +14090,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -14103,7 +14110,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -14123,7 +14130,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -14143,7 +14150,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -14163,7 +14170,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -14183,7 +14190,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -14203,7 +14210,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -14223,7 +14230,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -14243,7 +14250,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -14263,7 +14270,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -14283,7 +14290,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -14303,7 +14310,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
@@ -14323,7 +14330,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -14343,7 +14350,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -14363,7 +14370,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -14383,7 +14390,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
@@ -14403,7 +14410,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -14423,7 +14430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
@@ -14443,7 +14450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -14463,7 +14470,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
@@ -14483,7 +14490,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -14503,7 +14510,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
@@ -14523,7 +14530,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
@@ -14543,7 +14550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
@@ -14563,7 +14570,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -14583,7 +14590,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
@@ -14603,7 +14610,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -14623,7 +14630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
@@ -14643,7 +14650,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
@@ -14663,7 +14670,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
@@ -14683,7 +14690,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
@@ -14703,7 +14710,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -14723,7 +14730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
@@ -14743,7 +14750,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -14763,7 +14770,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
@@ -14783,7 +14790,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
@@ -14803,7 +14810,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -14823,7 +14830,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
@@ -14843,7 +14850,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
@@ -14863,7 +14870,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
@@ -14883,7 +14890,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -14903,7 +14910,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
@@ -14923,7 +14930,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
@@ -14943,7 +14950,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
@@ -14963,7 +14970,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
@@ -14983,7 +14990,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -15003,7 +15010,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
@@ -15023,7 +15030,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
@@ -15043,7 +15050,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
@@ -15063,7 +15070,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
@@ -15083,7 +15090,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
@@ -15103,7 +15110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
@@ -15123,7 +15130,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
@@ -15143,7 +15150,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
@@ -15163,7 +15170,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
@@ -15183,7 +15190,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
@@ -15203,7 +15210,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
@@ -15223,7 +15230,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -15243,7 +15250,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
@@ -15263,7 +15270,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
@@ -15283,7 +15290,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -15303,7 +15310,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -15323,7 +15330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -15343,7 +15350,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
@@ -15363,7 +15370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -15383,7 +15390,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
@@ -15403,7 +15410,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -15423,7 +15430,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
@@ -15443,7 +15450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
@@ -15463,7 +15470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
@@ -15483,7 +15490,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -15503,7 +15510,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -15543,7 +15550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -15563,7 +15570,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -15583,7 +15590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -15603,7 +15610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -15623,7 +15630,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>626</v>
       </c>
@@ -15643,7 +15650,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -15663,7 +15670,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>628</v>
       </c>
@@ -15683,7 +15690,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>629</v>
       </c>
@@ -15703,7 +15710,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>630</v>
       </c>
@@ -15723,7 +15730,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -15743,7 +15750,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>632</v>
       </c>
@@ -15763,7 +15770,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>633</v>
       </c>
@@ -15783,7 +15790,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>634</v>
       </c>
@@ -15803,7 +15810,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>635</v>
       </c>
@@ -15823,7 +15830,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>636</v>
       </c>
@@ -15843,7 +15850,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>637</v>
       </c>
@@ -15863,7 +15870,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -15883,7 +15890,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>639</v>
       </c>
@@ -15903,7 +15910,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -15923,7 +15930,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -15943,7 +15950,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -15963,7 +15970,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>643</v>
       </c>
@@ -15983,7 +15990,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -16003,7 +16010,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>645</v>
       </c>
@@ -16023,7 +16030,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -16043,7 +16050,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>647</v>
       </c>
@@ -16063,7 +16070,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>648</v>
       </c>
@@ -16083,7 +16090,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>649</v>
       </c>
@@ -16103,7 +16110,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>650</v>
       </c>
@@ -16123,7 +16130,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>651</v>
       </c>
@@ -16143,7 +16150,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -16163,7 +16170,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>653</v>
       </c>
@@ -16183,7 +16190,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>654</v>
       </c>
@@ -16203,7 +16210,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>655</v>
       </c>
@@ -16223,7 +16230,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -16243,7 +16250,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>657</v>
       </c>
@@ -16263,7 +16270,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -16283,7 +16290,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>659</v>
       </c>
@@ -16303,7 +16310,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>660</v>
       </c>
@@ -16323,7 +16330,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>661</v>
       </c>
@@ -16343,7 +16350,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>662</v>
       </c>
@@ -16363,7 +16370,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>663</v>
       </c>
@@ -16383,7 +16390,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -16403,7 +16410,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -16423,7 +16430,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -16443,7 +16450,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -16463,7 +16470,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>668</v>
       </c>
@@ -16483,7 +16490,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>669</v>
       </c>
@@ -16503,7 +16510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>670</v>
       </c>
@@ -16523,7 +16530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -16543,7 +16550,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>672</v>
       </c>
@@ -16563,7 +16570,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>673</v>
       </c>
@@ -16583,7 +16590,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -16603,7 +16610,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>675</v>
       </c>
@@ -16623,7 +16630,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>676</v>
       </c>
@@ -16643,7 +16650,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>677</v>
       </c>
@@ -16663,7 +16670,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>678</v>
       </c>
@@ -16683,7 +16690,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -16703,7 +16710,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>680</v>
       </c>
@@ -16723,7 +16730,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -16743,7 +16750,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>682</v>
       </c>
@@ -16763,7 +16770,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -16783,7 +16790,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>684</v>
       </c>
@@ -16803,7 +16810,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>685</v>
       </c>
@@ -16823,7 +16830,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -16843,7 +16850,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>687</v>
       </c>
@@ -16863,7 +16870,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>688</v>
       </c>
@@ -16883,7 +16890,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>689</v>
       </c>
@@ -16903,7 +16910,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>690</v>
       </c>
@@ -16923,7 +16930,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -16943,7 +16950,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -16963,7 +16970,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -16983,7 +16990,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>694</v>
       </c>
@@ -17003,7 +17010,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>695</v>
       </c>
@@ -17023,7 +17030,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -17043,7 +17050,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -17063,7 +17070,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -17083,7 +17090,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>699</v>
       </c>
@@ -17103,7 +17110,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -17123,7 +17130,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>701</v>
       </c>
@@ -17143,7 +17150,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -17163,7 +17170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>703</v>
       </c>
@@ -17183,7 +17190,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>704</v>
       </c>
@@ -17203,7 +17210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>705</v>
       </c>
@@ -17223,7 +17230,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>706</v>
       </c>
@@ -17243,7 +17250,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>707</v>
       </c>
@@ -17263,7 +17270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>708</v>
       </c>
@@ -17283,7 +17290,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>709</v>
       </c>
@@ -17303,7 +17310,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>710</v>
       </c>
@@ -17323,7 +17330,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>711</v>
       </c>
@@ -17343,7 +17350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>712</v>
       </c>
@@ -17363,7 +17370,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -17383,7 +17390,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -17403,7 +17410,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -17423,7 +17430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -17443,7 +17450,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -17463,7 +17470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>718</v>
       </c>
@@ -17483,7 +17490,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -17503,7 +17510,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -17523,7 +17530,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>721</v>
       </c>
@@ -17543,7 +17550,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -17563,7 +17570,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -17583,7 +17590,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>724</v>
       </c>
@@ -17603,7 +17610,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -17623,7 +17630,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -17643,7 +17650,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>727</v>
       </c>
@@ -17663,7 +17670,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>728</v>
       </c>
@@ -17683,7 +17690,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -17703,7 +17710,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -17723,7 +17730,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>731</v>
       </c>
@@ -17743,7 +17750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>732</v>
       </c>
@@ -17763,7 +17770,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -17783,7 +17790,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>734</v>
       </c>
@@ -17803,7 +17810,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -17823,7 +17830,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -17843,7 +17850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>737</v>
       </c>
@@ -17863,7 +17870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>738</v>
       </c>
@@ -17883,7 +17890,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -17903,7 +17910,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>740</v>
       </c>
@@ -17923,7 +17930,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>741</v>
       </c>
@@ -17943,7 +17950,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -17963,7 +17970,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -17983,7 +17990,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>744</v>
       </c>
@@ -18003,7 +18010,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>745</v>
       </c>
@@ -18023,7 +18030,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>746</v>
       </c>
@@ -18043,7 +18050,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>747</v>
       </c>
@@ -18063,7 +18070,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>748</v>
       </c>
@@ -18083,7 +18090,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>749</v>
       </c>
@@ -18103,7 +18110,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>750</v>
       </c>
@@ -18123,7 +18130,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -18143,7 +18150,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -18163,7 +18170,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -18183,7 +18190,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -18203,7 +18210,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -18223,7 +18230,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
@@ -18243,7 +18250,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
@@ -18263,7 +18270,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
@@ -18283,7 +18290,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -18303,7 +18310,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
@@ -18323,7 +18330,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
@@ -18343,7 +18350,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
@@ -18363,7 +18370,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
@@ -18383,7 +18390,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -18403,7 +18410,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -18423,7 +18430,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>
@@ -18443,7 +18450,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>767</v>
       </c>
@@ -18463,7 +18470,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>768</v>
       </c>
@@ -18483,7 +18490,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>769</v>
       </c>
@@ -18503,7 +18510,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>770</v>
       </c>
@@ -18523,7 +18530,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>771</v>
       </c>
@@ -18543,7 +18550,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>772</v>
       </c>
@@ -18563,7 +18570,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -18583,7 +18590,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -18603,7 +18610,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -18623,7 +18630,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>776</v>
       </c>
@@ -18643,7 +18650,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>777</v>
       </c>
@@ -18663,7 +18670,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>778</v>
       </c>
@@ -18683,7 +18690,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>779</v>
       </c>
@@ -18703,7 +18710,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -18723,7 +18730,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -18743,7 +18750,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -18763,7 +18770,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -18783,7 +18790,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -18803,7 +18810,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>785</v>
       </c>
@@ -18823,7 +18830,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>786</v>
       </c>
@@ -18843,7 +18850,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>787</v>
       </c>
@@ -18863,7 +18870,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -18883,7 +18890,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -18903,7 +18910,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>790</v>
       </c>
@@ -18923,7 +18930,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -18943,7 +18950,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>792</v>
       </c>
@@ -18963,7 +18970,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -18983,7 +18990,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>794</v>
       </c>
@@ -19003,7 +19010,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -19023,7 +19030,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>796</v>
       </c>
@@ -19043,7 +19050,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -19063,7 +19070,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>798</v>
       </c>
@@ -19083,7 +19090,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>799</v>
       </c>
@@ -19103,7 +19110,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>800</v>
       </c>
@@ -19123,7 +19130,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>801</v>
       </c>
@@ -19143,7 +19150,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -19163,7 +19170,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -19183,7 +19190,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -19203,7 +19210,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>805</v>
       </c>
@@ -19223,7 +19230,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>806</v>
       </c>
@@ -19243,7 +19250,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -19263,7 +19270,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -19283,7 +19290,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>809</v>
       </c>
@@ -19303,7 +19310,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>810</v>
       </c>
@@ -19323,7 +19330,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>811</v>
       </c>
@@ -19343,7 +19350,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -19363,7 +19370,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>813</v>
       </c>
@@ -19383,7 +19390,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -19403,7 +19410,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>815</v>
       </c>
@@ -19423,7 +19430,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -19443,7 +19450,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>817</v>
       </c>
@@ -19463,7 +19470,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>818</v>
       </c>
@@ -19483,7 +19490,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>819</v>
       </c>
@@ -19503,7 +19510,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>820</v>
       </c>
@@ -19523,7 +19530,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -19543,7 +19550,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -19563,7 +19570,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -19583,7 +19590,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>824</v>
       </c>
@@ -19603,7 +19610,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>825</v>
       </c>
@@ -19623,7 +19630,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>826</v>
       </c>
@@ -19643,7 +19650,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -19663,7 +19670,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>828</v>
       </c>
@@ -19683,7 +19690,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>829</v>
       </c>
@@ -19703,7 +19710,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -19723,7 +19730,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>831</v>
       </c>
@@ -19743,7 +19750,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>832</v>
       </c>
@@ -19763,7 +19770,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>833</v>
       </c>
@@ -19783,7 +19790,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -19803,7 +19810,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>835</v>
       </c>
@@ -19823,7 +19830,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>836</v>
       </c>
@@ -19843,7 +19850,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>837</v>
       </c>
@@ -19863,7 +19870,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>838</v>
       </c>
@@ -19883,7 +19890,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -19903,7 +19910,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>840</v>
       </c>
@@ -19923,7 +19930,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -19943,7 +19950,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>842</v>
       </c>
@@ -19963,7 +19970,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -19983,7 +19990,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -20003,7 +20010,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>845</v>
       </c>
@@ -20023,7 +20030,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>846</v>
       </c>
@@ -20043,7 +20050,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>847</v>
       </c>
@@ -20063,7 +20070,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -20083,7 +20090,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>849</v>
       </c>
@@ -20103,7 +20110,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -20123,7 +20130,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>851</v>
       </c>
@@ -20143,7 +20150,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>852</v>
       </c>

--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97409B5-8B04-4AB6-A99E-0DF51298A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A17314-8A5E-4598-94B1-6B2C2EA807A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features_list" sheetId="3" r:id="rId1"/>
@@ -2760,7 +2760,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}" name="Table5" displayName="Table5" ref="A1:F909" totalsRowShown="0">
-  <autoFilter ref="A1:F909" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}"/>
+  <autoFilter ref="A1:F909" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="5"/>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEE4E605-610E-4889-9D07-3E9345661F4C}" name="text_id"/>
     <tableColumn id="2" xr3:uid="{06620FB3-44A2-4479-8283-80AD80EE1B9B}" name=" feature_id"/>
@@ -3057,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000DAD0-45D8-4F57-BB32-ED68B84F1CCC}">
   <dimension ref="A1:F909"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A300" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3131,7 +3138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3211,7 +3218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3231,7 +3238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3251,7 +3258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3331,7 +3338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3431,7 +3438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3451,7 +3458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3471,7 +3478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3511,7 +3518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3551,7 +3558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3571,7 +3578,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3631,7 +3638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3671,7 +3678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3691,7 +3698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3711,7 +3718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3771,7 +3778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3791,7 +3798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3911,7 +3918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3931,7 +3938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4011,7 +4018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4051,7 +4058,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4131,7 +4138,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4171,7 +4178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4191,7 +4198,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4231,7 +4238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4271,7 +4278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4351,7 +4358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4411,7 +4418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4471,7 +4478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4491,7 +4498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4671,7 +4678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4711,7 +4718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4811,7 +4818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4851,7 +4858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4871,7 +4878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4931,7 +4938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4971,7 +4978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5011,7 +5018,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5071,7 +5078,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5091,7 +5098,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5131,7 +5138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5171,7 +5178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5191,7 +5198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5211,7 +5218,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5271,7 +5278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5291,7 +5298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5411,7 +5418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5431,7 +5438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5471,7 +5478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5491,7 +5498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5531,7 +5538,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5551,7 +5558,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5571,7 +5578,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5591,7 +5598,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5611,7 +5618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5651,7 +5658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5691,7 +5698,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5751,7 +5758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5851,7 +5858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5871,7 +5878,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5971,7 +5978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5991,7 +5998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6031,7 +6038,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6051,7 +6058,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6071,7 +6078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6111,7 +6118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6211,7 +6218,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6231,7 +6238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6251,7 +6258,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6311,7 +6318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6391,7 +6398,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6451,7 +6458,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6491,7 +6498,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6511,7 +6518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6551,7 +6558,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6571,7 +6578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6591,7 +6598,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6611,7 +6618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6691,7 +6698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6711,7 +6718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6751,7 +6758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6771,7 +6778,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6811,7 +6818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6831,7 +6838,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6851,7 +6858,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6871,7 +6878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6911,7 +6918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6931,7 +6938,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6951,7 +6958,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6991,7 +6998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7011,7 +7018,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7031,7 +7038,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7091,7 +7098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7111,7 +7118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7171,7 +7178,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7191,7 +7198,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7231,7 +7238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7251,7 +7258,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7271,7 +7278,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7291,7 +7298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7371,7 +7378,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7391,7 +7398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7411,7 +7418,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7431,7 +7438,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7451,7 +7458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7471,7 +7478,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7491,7 +7498,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7511,7 +7518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7571,7 +7578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7591,7 +7598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7611,7 +7618,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7631,7 +7638,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7651,7 +7658,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7671,7 +7678,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7731,7 +7738,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7811,7 +7818,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7831,7 +7838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7851,7 +7858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7871,7 +7878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7931,7 +7938,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7951,7 +7958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7971,7 +7978,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8011,7 +8018,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8031,7 +8038,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8051,7 +8058,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8071,7 +8078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8091,7 +8098,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8111,7 +8118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8131,7 +8138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8151,7 +8158,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8171,7 +8178,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8191,7 +8198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8211,7 +8218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8231,7 +8238,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8251,7 +8258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8271,7 +8278,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8291,7 +8298,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8311,7 +8318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8331,7 +8338,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8351,7 +8358,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8411,7 +8418,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8431,7 +8438,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8451,7 +8458,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8471,7 +8478,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8491,7 +8498,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8511,7 +8518,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8531,7 +8538,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8551,7 +8558,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8571,7 +8578,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8611,7 +8618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8631,7 +8638,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9491,7 +9498,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9511,7 +9518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9531,7 +9538,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9551,7 +9558,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9571,7 +9578,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9611,7 +9618,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9631,7 +9638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9651,7 +9658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9671,7 +9678,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9691,7 +9698,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9711,7 +9718,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9731,7 +9738,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9751,7 +9758,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9771,7 +9778,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9791,7 +9798,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9811,7 +9818,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9851,7 +9858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9871,7 +9878,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9891,7 +9898,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9911,7 +9918,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9931,7 +9938,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9951,7 +9958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9991,7 +9998,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10011,7 +10018,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10031,7 +10038,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10051,7 +10058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10071,7 +10078,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10091,7 +10098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10111,7 +10118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10131,7 +10138,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10151,7 +10158,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10171,7 +10178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10191,7 +10198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10211,7 +10218,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10231,7 +10238,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10251,7 +10258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10271,7 +10278,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10291,7 +10298,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10311,7 +10318,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10331,7 +10338,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10351,7 +10358,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10371,7 +10378,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10391,7 +10398,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10411,7 +10418,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10431,7 +10438,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10451,7 +10458,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10471,7 +10478,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10511,7 +10518,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10531,7 +10538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10551,7 +10558,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10571,7 +10578,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10591,7 +10598,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10611,7 +10618,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10651,7 +10658,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10671,7 +10678,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10691,7 +10698,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10711,7 +10718,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10731,7 +10738,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10751,7 +10758,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10771,7 +10778,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10791,7 +10798,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10811,7 +10818,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10831,7 +10838,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10851,7 +10858,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -10871,7 +10878,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -10891,7 +10898,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -10911,7 +10918,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -10931,7 +10938,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -10951,7 +10958,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -10971,7 +10978,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -11011,7 +11018,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -11031,7 +11038,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -11051,7 +11058,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -11071,7 +11078,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -11091,7 +11098,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11131,7 +11138,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11151,7 +11158,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11171,7 +11178,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11191,7 +11198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11211,7 +11218,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11231,7 +11238,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11251,7 +11258,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11271,7 +11278,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11311,7 +11318,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11331,7 +11338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11351,7 +11358,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11371,7 +11378,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11391,7 +11398,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11411,7 +11418,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11431,7 +11438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11451,7 +11458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11491,7 +11498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11511,7 +11518,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11531,7 +11538,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11551,7 +11558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11571,7 +11578,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11591,7 +11598,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11611,7 +11618,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11631,7 +11638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11651,7 +11658,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11671,7 +11678,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11691,7 +11698,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11711,7 +11718,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11731,7 +11738,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11751,7 +11758,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11771,7 +11778,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11791,7 +11798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11811,7 +11818,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11831,7 +11838,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11851,7 +11858,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11871,7 +11878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11891,7 +11898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11911,7 +11918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11931,7 +11938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11951,7 +11958,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11971,7 +11978,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -11991,7 +11998,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -12011,7 +12018,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -12031,7 +12038,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -12051,7 +12058,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -12071,7 +12078,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -12091,7 +12098,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -12111,7 +12118,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -12131,7 +12138,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -12151,7 +12158,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -12171,7 +12178,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -12191,7 +12198,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -12211,7 +12218,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -12231,7 +12238,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -12251,7 +12258,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -12271,7 +12278,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -12291,7 +12298,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -12311,7 +12318,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -12331,7 +12338,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -12351,7 +12358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -12371,7 +12378,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -12411,7 +12418,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -12431,7 +12438,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -12451,7 +12458,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -12471,7 +12478,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -12511,7 +12518,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -12531,7 +12538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12551,7 +12558,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12571,7 +12578,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12591,7 +12598,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12611,7 +12618,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12631,7 +12638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12651,7 +12658,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12671,7 +12678,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12691,7 +12698,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12711,7 +12718,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12731,7 +12738,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12751,7 +12758,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12771,7 +12778,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12791,7 +12798,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12811,7 +12818,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12831,7 +12838,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12851,7 +12858,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12871,7 +12878,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12891,7 +12898,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12911,7 +12918,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12931,7 +12938,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12951,7 +12958,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12971,7 +12978,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -12991,7 +12998,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -13011,7 +13018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -13031,7 +13038,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -13051,7 +13058,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -13071,7 +13078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -13091,7 +13098,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -13111,7 +13118,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -13131,7 +13138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -13151,7 +13158,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -13171,7 +13178,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -13191,7 +13198,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -13211,7 +13218,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -13231,7 +13238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -13251,7 +13258,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -13291,7 +13298,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -13311,7 +13318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -13331,7 +13338,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -13351,7 +13358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -13371,7 +13378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -13391,7 +13398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -13411,7 +13418,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -13431,7 +13438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -13451,7 +13458,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -13471,7 +13478,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -13491,7 +13498,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -13511,7 +13518,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -13531,7 +13538,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -13551,7 +13558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -13571,7 +13578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -13591,7 +13598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -13611,7 +13618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -13651,7 +13658,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -13671,7 +13678,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -13691,7 +13698,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -13711,7 +13718,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -13731,7 +13738,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -13751,7 +13758,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -13791,7 +13798,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -13811,7 +13818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -13831,7 +13838,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -13851,7 +13858,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -13891,7 +13898,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -13911,7 +13918,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -13931,7 +13938,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
@@ -13951,7 +13958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
@@ -13971,7 +13978,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -13991,7 +13998,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -14011,7 +14018,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -14031,7 +14038,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -14051,7 +14058,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -14071,7 +14078,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -14091,7 +14098,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -14111,7 +14118,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -14131,7 +14138,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -14151,7 +14158,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -14171,7 +14178,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -14191,7 +14198,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -14211,7 +14218,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -14231,7 +14238,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -14251,7 +14258,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -14271,7 +14278,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -14291,7 +14298,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
@@ -14311,7 +14318,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -14331,7 +14338,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -14351,7 +14358,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -14371,7 +14378,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
@@ -14391,7 +14398,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -14411,7 +14418,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
@@ -14431,7 +14438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -14451,7 +14458,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
@@ -14471,7 +14478,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -14491,7 +14498,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
@@ -14511,7 +14518,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
@@ -14531,7 +14538,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
@@ -14551,7 +14558,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -14571,7 +14578,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
@@ -14591,7 +14598,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -14611,7 +14618,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
@@ -14631,7 +14638,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
@@ -14651,7 +14658,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
@@ -14671,7 +14678,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
@@ -14691,7 +14698,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -14711,7 +14718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
@@ -14731,7 +14738,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -14751,7 +14758,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
@@ -14771,7 +14778,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
@@ -14791,7 +14798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -14811,7 +14818,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
@@ -14831,7 +14838,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
@@ -14851,7 +14858,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
@@ -14871,7 +14878,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -14891,7 +14898,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
@@ -14911,7 +14918,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
@@ -14931,7 +14938,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
@@ -14951,7 +14958,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
@@ -14971,7 +14978,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -14991,7 +14998,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
@@ -15011,7 +15018,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
@@ -15031,7 +15038,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
@@ -15051,7 +15058,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
@@ -15071,7 +15078,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
@@ -15091,7 +15098,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
@@ -15111,7 +15118,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
@@ -15131,7 +15138,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
@@ -15151,7 +15158,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
@@ -15171,7 +15178,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
@@ -15191,7 +15198,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
@@ -15211,7 +15218,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -15231,7 +15238,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
@@ -15251,7 +15258,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
@@ -15271,7 +15278,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -15291,7 +15298,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -15311,7 +15318,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -15331,7 +15338,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
@@ -15351,7 +15358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -15371,7 +15378,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
@@ -15391,7 +15398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -15411,7 +15418,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
@@ -15431,7 +15438,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
@@ -15451,7 +15458,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
@@ -15471,7 +15478,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -15491,7 +15498,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
@@ -15511,7 +15518,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -15531,7 +15538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -15551,7 +15558,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -15571,7 +15578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -15591,7 +15598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -15611,7 +15618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>626</v>
       </c>
@@ -15631,7 +15638,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -15651,7 +15658,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>628</v>
       </c>
@@ -15671,7 +15678,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>629</v>
       </c>
@@ -15691,7 +15698,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>630</v>
       </c>
@@ -15711,7 +15718,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -15731,7 +15738,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>632</v>
       </c>
@@ -15751,7 +15758,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>633</v>
       </c>
@@ -15771,7 +15778,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>634</v>
       </c>
@@ -15791,7 +15798,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>635</v>
       </c>
@@ -15811,7 +15818,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>636</v>
       </c>
@@ -15831,7 +15838,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>637</v>
       </c>
@@ -15851,7 +15858,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -15871,7 +15878,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>639</v>
       </c>
@@ -15891,7 +15898,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -15911,7 +15918,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -15931,7 +15938,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -15951,7 +15958,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>643</v>
       </c>
@@ -15971,7 +15978,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -15991,7 +15998,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>645</v>
       </c>
@@ -16011,7 +16018,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -16031,7 +16038,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>647</v>
       </c>
@@ -16051,7 +16058,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>648</v>
       </c>
@@ -16071,7 +16078,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>649</v>
       </c>
@@ -16091,7 +16098,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>650</v>
       </c>
@@ -16111,7 +16118,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>651</v>
       </c>
@@ -16131,7 +16138,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -16151,7 +16158,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>653</v>
       </c>
@@ -16171,7 +16178,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>654</v>
       </c>
@@ -16191,7 +16198,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>655</v>
       </c>
@@ -16211,7 +16218,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -16231,7 +16238,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>657</v>
       </c>
@@ -16251,7 +16258,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -16271,7 +16278,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>659</v>
       </c>
@@ -16291,7 +16298,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>660</v>
       </c>
@@ -16311,7 +16318,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>661</v>
       </c>
@@ -16331,7 +16338,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>662</v>
       </c>
@@ -16351,7 +16358,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>663</v>
       </c>
@@ -16371,7 +16378,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -16391,7 +16398,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -16411,7 +16418,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -16431,7 +16438,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -16451,7 +16458,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>668</v>
       </c>
@@ -16471,7 +16478,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>669</v>
       </c>
@@ -16491,7 +16498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>670</v>
       </c>
@@ -16511,7 +16518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -16531,7 +16538,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>672</v>
       </c>
@@ -16551,7 +16558,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>673</v>
       </c>
@@ -16571,7 +16578,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -16591,7 +16598,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>675</v>
       </c>
@@ -16611,7 +16618,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>676</v>
       </c>
@@ -16631,7 +16638,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>677</v>
       </c>
@@ -16651,7 +16658,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>678</v>
       </c>
@@ -16671,7 +16678,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -16691,7 +16698,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>680</v>
       </c>
@@ -16711,7 +16718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -16731,7 +16738,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>682</v>
       </c>
@@ -16751,7 +16758,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -16771,7 +16778,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>684</v>
       </c>
@@ -16791,7 +16798,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>685</v>
       </c>
@@ -16811,7 +16818,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -16831,7 +16838,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>687</v>
       </c>
@@ -16851,7 +16858,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>688</v>
       </c>
@@ -16871,7 +16878,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>689</v>
       </c>
@@ -16891,7 +16898,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>690</v>
       </c>
@@ -16911,7 +16918,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -16931,7 +16938,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -16951,7 +16958,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -16971,7 +16978,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>694</v>
       </c>
@@ -16991,7 +16998,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>695</v>
       </c>
@@ -17011,7 +17018,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -17031,7 +17038,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -17051,7 +17058,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -17071,7 +17078,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>699</v>
       </c>
@@ -17091,7 +17098,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -17111,7 +17118,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>701</v>
       </c>
@@ -17131,7 +17138,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -17151,7 +17158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>703</v>
       </c>
@@ -17171,7 +17178,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>704</v>
       </c>
@@ -17191,7 +17198,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>705</v>
       </c>
@@ -17211,7 +17218,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>706</v>
       </c>
@@ -17231,7 +17238,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>707</v>
       </c>
@@ -17251,7 +17258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>708</v>
       </c>
@@ -17271,7 +17278,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>709</v>
       </c>
@@ -17291,7 +17298,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>710</v>
       </c>
@@ -17311,7 +17318,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>711</v>
       </c>
@@ -17331,7 +17338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>712</v>
       </c>
@@ -17351,7 +17358,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -17371,7 +17378,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -17391,7 +17398,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -17431,7 +17438,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -17451,7 +17458,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>718</v>
       </c>
@@ -17471,7 +17478,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -17491,7 +17498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -17511,7 +17518,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>721</v>
       </c>
@@ -17531,7 +17538,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -17551,7 +17558,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -17571,7 +17578,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>724</v>
       </c>
@@ -17591,7 +17598,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -17611,7 +17618,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -17631,7 +17638,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>727</v>
       </c>
@@ -17651,7 +17658,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>728</v>
       </c>
@@ -17671,7 +17678,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -17691,7 +17698,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -17711,7 +17718,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>731</v>
       </c>
@@ -17731,7 +17738,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>732</v>
       </c>
@@ -17751,7 +17758,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -17771,7 +17778,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>734</v>
       </c>
@@ -17791,7 +17798,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -17811,7 +17818,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -17831,7 +17838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>737</v>
       </c>
@@ -17851,7 +17858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>738</v>
       </c>
@@ -17871,7 +17878,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -17891,7 +17898,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>740</v>
       </c>
@@ -17911,7 +17918,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>741</v>
       </c>
@@ -17931,7 +17938,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -17951,7 +17958,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -17971,7 +17978,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>744</v>
       </c>
@@ -17991,7 +17998,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>745</v>
       </c>
@@ -18011,7 +18018,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>746</v>
       </c>
@@ -18031,7 +18038,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>747</v>
       </c>
@@ -18051,7 +18058,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>748</v>
       </c>
@@ -18071,7 +18078,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>749</v>
       </c>
@@ -18091,7 +18098,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>750</v>
       </c>
@@ -18111,7 +18118,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -18131,7 +18138,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -18151,7 +18158,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -18171,7 +18178,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -18191,7 +18198,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -18211,7 +18218,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
@@ -18231,7 +18238,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
@@ -18251,7 +18258,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
@@ -18271,7 +18278,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -18291,7 +18298,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
@@ -18311,7 +18318,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
@@ -18331,7 +18338,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
@@ -18351,7 +18358,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
@@ -18371,7 +18378,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -18391,7 +18398,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -18411,7 +18418,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>
@@ -18431,7 +18438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>767</v>
       </c>
@@ -18451,7 +18458,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>768</v>
       </c>
@@ -18471,7 +18478,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>769</v>
       </c>
@@ -18491,7 +18498,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>770</v>
       </c>
@@ -18511,7 +18518,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>771</v>
       </c>
@@ -18531,7 +18538,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>772</v>
       </c>
@@ -18551,7 +18558,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -18571,7 +18578,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -18591,7 +18598,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -18611,7 +18618,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>776</v>
       </c>
@@ -18631,7 +18638,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>777</v>
       </c>
@@ -18651,7 +18658,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>778</v>
       </c>
@@ -18671,7 +18678,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>779</v>
       </c>
@@ -18691,7 +18698,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -18711,7 +18718,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -18731,7 +18738,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -18751,7 +18758,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -18771,7 +18778,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -18791,7 +18798,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>785</v>
       </c>
@@ -18811,7 +18818,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>786</v>
       </c>
@@ -18831,7 +18838,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>787</v>
       </c>
@@ -18851,7 +18858,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -18871,7 +18878,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -18891,7 +18898,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>790</v>
       </c>
@@ -18911,7 +18918,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>792</v>
       </c>
@@ -18951,7 +18958,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -18971,7 +18978,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>794</v>
       </c>
@@ -18991,7 +18998,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -19011,7 +19018,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>796</v>
       </c>
@@ -19031,7 +19038,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -19051,7 +19058,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>798</v>
       </c>
@@ -19071,7 +19078,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>799</v>
       </c>
@@ -19091,7 +19098,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>800</v>
       </c>
@@ -19111,7 +19118,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>801</v>
       </c>
@@ -19131,7 +19138,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -19151,7 +19158,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -19171,7 +19178,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -19191,7 +19198,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>805</v>
       </c>
@@ -19211,7 +19218,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>806</v>
       </c>
@@ -19231,7 +19238,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -19251,7 +19258,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -19271,7 +19278,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>809</v>
       </c>
@@ -19291,7 +19298,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>810</v>
       </c>
@@ -19311,7 +19318,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>811</v>
       </c>
@@ -19331,7 +19338,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -19351,7 +19358,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>813</v>
       </c>
@@ -19371,7 +19378,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -19391,7 +19398,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>815</v>
       </c>
@@ -19411,7 +19418,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -19431,7 +19438,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>817</v>
       </c>
@@ -19451,7 +19458,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>818</v>
       </c>
@@ -19471,7 +19478,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>819</v>
       </c>
@@ -19491,7 +19498,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>820</v>
       </c>
@@ -19511,7 +19518,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -19531,7 +19538,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -19551,7 +19558,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -19571,7 +19578,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>824</v>
       </c>
@@ -19591,7 +19598,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>825</v>
       </c>
@@ -19611,7 +19618,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>826</v>
       </c>
@@ -19631,7 +19638,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -19651,7 +19658,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>828</v>
       </c>
@@ -19671,7 +19678,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>829</v>
       </c>
@@ -19691,7 +19698,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -19711,7 +19718,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>831</v>
       </c>
@@ -19731,7 +19738,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>832</v>
       </c>
@@ -19751,7 +19758,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>833</v>
       </c>
@@ -19771,7 +19778,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -19791,7 +19798,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>835</v>
       </c>
@@ -19811,7 +19818,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>836</v>
       </c>
@@ -19831,7 +19838,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>837</v>
       </c>
@@ -19851,7 +19858,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>838</v>
       </c>
@@ -19871,7 +19878,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -19891,7 +19898,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>840</v>
       </c>
@@ -19911,7 +19918,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -19931,7 +19938,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>842</v>
       </c>
@@ -19951,7 +19958,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -19971,7 +19978,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -19991,7 +19998,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>845</v>
       </c>
@@ -20011,7 +20018,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>846</v>
       </c>
@@ -20031,7 +20038,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>847</v>
       </c>
@@ -20051,7 +20058,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -20071,7 +20078,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>849</v>
       </c>
@@ -20091,7 +20098,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -20111,7 +20118,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>851</v>
       </c>
@@ -20131,7 +20138,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>852</v>
       </c>
@@ -29730,7 +29737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C2A960-F8A0-4080-979F-D89E63FD0EF6}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A17314-8A5E-4598-94B1-6B2C2EA807A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB07546-6A07-40FB-BD68-452EEFE07CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features_list" sheetId="3" r:id="rId1"/>
@@ -2760,14 +2760,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}" name="Table5" displayName="Table5" ref="A1:F909" totalsRowShown="0">
-  <autoFilter ref="A1:F909" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="5"/>
-        <filter val="12"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F909" xr:uid="{C524C871-F849-42E0-A627-1D8603F3871E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEE4E605-610E-4889-9D07-3E9345661F4C}" name="text_id"/>
     <tableColumn id="2" xr3:uid="{06620FB3-44A2-4479-8283-80AD80EE1B9B}" name=" feature_id"/>
@@ -3064,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000DAD0-45D8-4F57-BB32-ED68B84F1CCC}">
   <dimension ref="A1:F909"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,7 +3091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3138,7 +3131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3158,7 +3151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3178,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3198,7 +3191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3218,7 +3211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3238,7 +3231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3318,7 +3311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3338,7 +3331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3358,7 +3351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3378,7 +3371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3398,7 +3391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3418,7 +3411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3438,7 +3431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3458,7 +3451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3478,7 +3471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3518,7 +3511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3538,7 +3531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3558,7 +3551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3578,7 +3571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3598,7 +3591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3618,7 +3611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3638,7 +3631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3678,7 +3671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3698,7 +3691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3738,7 +3731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3778,7 +3771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3798,7 +3791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3838,7 +3831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3878,7 +3871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3898,7 +3891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3958,7 +3951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3978,7 +3971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3998,7 +3991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4018,7 +4011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4038,7 +4031,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4058,7 +4051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4078,7 +4071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4098,7 +4091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4118,7 +4111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4158,7 +4151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4178,7 +4171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4218,7 +4211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4258,7 +4251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4278,7 +4271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4298,7 +4291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4318,7 +4311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4338,7 +4331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4358,7 +4351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4378,7 +4371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4398,7 +4391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4418,7 +4411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4438,7 +4431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4458,7 +4451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4478,7 +4471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4498,7 +4491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4518,7 +4511,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4538,7 +4531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4558,7 +4551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4578,7 +4571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4598,7 +4591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4618,7 +4611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4638,7 +4631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4658,7 +4651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4678,7 +4671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4698,7 +4691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4718,7 +4711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4738,7 +4731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4758,7 +4751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4778,7 +4771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4798,7 +4791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4838,7 +4831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4858,7 +4851,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4878,7 +4871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4898,7 +4891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4918,7 +4911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4938,7 +4931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4958,7 +4951,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4998,7 +4991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5018,7 +5011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5058,7 +5051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5078,7 +5071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5098,7 +5091,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5118,7 +5111,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5138,7 +5131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5158,7 +5151,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5178,7 +5171,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5198,7 +5191,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5218,7 +5211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5238,7 +5231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5278,7 +5271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5298,7 +5291,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5318,7 +5311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5338,7 +5331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5358,7 +5351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5378,7 +5371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5398,7 +5391,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5418,7 +5411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5438,7 +5431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5458,7 +5451,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5478,7 +5471,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5498,7 +5491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5518,7 +5511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5538,7 +5531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5558,7 +5551,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5578,7 +5571,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5598,7 +5591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5618,7 +5611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5638,7 +5631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5658,7 +5651,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5678,7 +5671,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5698,7 +5691,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5718,7 +5711,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5738,7 +5731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5758,7 +5751,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5778,7 +5771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5798,7 +5791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5818,7 +5811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5838,7 +5831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5858,7 +5851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5878,7 +5871,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5898,7 +5891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5918,7 +5911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5938,7 +5931,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5958,7 +5951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5978,7 +5971,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5998,7 +5991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6018,7 +6011,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6038,7 +6031,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6058,7 +6051,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6078,7 +6071,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6098,7 +6091,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6118,7 +6111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6138,7 +6131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6158,7 +6151,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6178,7 +6171,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6198,7 +6191,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6218,7 +6211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6238,7 +6231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6258,7 +6251,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6278,7 +6271,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6298,7 +6291,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6318,7 +6311,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6338,7 +6331,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6358,7 +6351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6378,7 +6371,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6398,7 +6391,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6418,7 +6411,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6438,7 +6431,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6458,7 +6451,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6478,7 +6471,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6498,7 +6491,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6518,7 +6511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6538,7 +6531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6558,7 +6551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6598,7 +6591,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6618,7 +6611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6638,7 +6631,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6658,7 +6651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6678,7 +6671,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6698,7 +6691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6718,7 +6711,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6738,7 +6731,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6758,7 +6751,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6778,7 +6771,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6798,7 +6791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6818,7 +6811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6838,7 +6831,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6858,7 +6851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6878,7 +6871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6898,7 +6891,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6918,7 +6911,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6938,7 +6931,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6958,7 +6951,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6978,7 +6971,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6998,7 +6991,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7018,7 +7011,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7038,7 +7031,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7058,7 +7051,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7078,7 +7071,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7098,7 +7091,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7118,7 +7111,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7138,7 +7131,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7158,7 +7151,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7178,7 +7171,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7198,7 +7191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7218,7 +7211,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7238,7 +7231,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7258,7 +7251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7278,7 +7271,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7298,7 +7291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7318,7 +7311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7338,7 +7331,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7358,7 +7351,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7378,7 +7371,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7398,7 +7391,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7418,7 +7411,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7438,7 +7431,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7458,7 +7451,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7478,7 +7471,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7498,7 +7491,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7518,7 +7511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7538,7 +7531,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7558,7 +7551,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7578,7 +7571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7598,7 +7591,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7618,7 +7611,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7638,7 +7631,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7658,7 +7651,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7678,7 +7671,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7698,7 +7691,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7718,7 +7711,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7738,7 +7731,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7758,7 +7751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7778,7 +7771,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7798,7 +7791,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7818,7 +7811,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7838,7 +7831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7858,7 +7851,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7878,7 +7871,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7898,7 +7891,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7918,7 +7911,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7938,7 +7931,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7958,7 +7951,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7978,7 +7971,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7998,7 +7991,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8018,7 +8011,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8038,7 +8031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8058,7 +8051,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8078,7 +8071,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8098,7 +8091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8118,7 +8111,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8138,7 +8131,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8158,7 +8151,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8178,7 +8171,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8198,7 +8191,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8218,7 +8211,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8238,7 +8231,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8258,7 +8251,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8278,7 +8271,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8298,7 +8291,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8318,7 +8311,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8338,7 +8331,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8358,7 +8351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8378,7 +8371,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8398,7 +8391,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8418,7 +8411,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8438,7 +8431,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8458,7 +8451,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8478,7 +8471,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8498,7 +8491,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8518,7 +8511,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8538,7 +8531,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8558,7 +8551,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8578,7 +8571,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8598,7 +8591,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8618,7 +8611,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8638,7 +8631,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9498,7 +9491,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9518,7 +9511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9538,7 +9531,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9558,7 +9551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9578,7 +9571,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9598,7 +9591,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9618,7 +9611,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9638,7 +9631,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9658,7 +9651,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9678,7 +9671,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9698,7 +9691,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9718,7 +9711,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9738,7 +9731,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9758,7 +9751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9778,7 +9771,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9798,7 +9791,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9818,7 +9811,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9838,7 +9831,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9858,7 +9851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9878,7 +9871,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9898,7 +9891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9918,7 +9911,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9938,7 +9931,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9958,7 +9951,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9978,7 +9971,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9998,7 +9991,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10018,7 +10011,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10038,7 +10031,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10058,7 +10051,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10078,7 +10071,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10098,7 +10091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10118,7 +10111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10138,7 +10131,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10158,7 +10151,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10178,7 +10171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10198,7 +10191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10218,7 +10211,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10238,7 +10231,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10258,7 +10251,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10278,7 +10271,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10298,7 +10291,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10318,7 +10311,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10338,7 +10331,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10358,7 +10351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10378,7 +10371,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10398,7 +10391,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10418,7 +10411,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10438,7 +10431,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10458,7 +10451,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10478,7 +10471,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10498,7 +10491,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10518,7 +10511,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10538,7 +10531,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10558,7 +10551,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10578,7 +10571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10598,7 +10591,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10618,7 +10611,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10638,7 +10631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10658,7 +10651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10678,7 +10671,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10698,7 +10691,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10718,7 +10711,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10738,7 +10731,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10758,7 +10751,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10778,7 +10771,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10798,7 +10791,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10818,7 +10811,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10838,7 +10831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10858,7 +10851,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -10878,7 +10871,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -10898,7 +10891,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -10918,7 +10911,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -10938,7 +10931,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -10958,7 +10951,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -10978,7 +10971,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -10998,7 +10991,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -11018,7 +11011,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -11038,7 +11031,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -11058,7 +11051,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -11078,7 +11071,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -11098,7 +11091,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11118,7 +11111,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11138,7 +11131,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11158,7 +11151,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11178,7 +11171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11198,7 +11191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11218,7 +11211,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11238,7 +11231,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11258,7 +11251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11278,7 +11271,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11298,7 +11291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11318,7 +11311,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11338,7 +11331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11358,7 +11351,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11378,7 +11371,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11398,7 +11391,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11418,7 +11411,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11438,7 +11431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11458,7 +11451,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11478,7 +11471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11498,7 +11491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11518,7 +11511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11538,7 +11531,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11558,7 +11551,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11578,7 +11571,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11598,7 +11591,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11618,7 +11611,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11638,7 +11631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11658,7 +11651,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11678,7 +11671,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11698,7 +11691,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11718,7 +11711,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11738,7 +11731,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11758,7 +11751,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11778,7 +11771,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11798,7 +11791,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11818,7 +11811,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11838,7 +11831,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11858,7 +11851,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11878,7 +11871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11898,7 +11891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11918,7 +11911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11938,7 +11931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11958,7 +11951,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11978,7 +11971,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -11998,7 +11991,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -12018,7 +12011,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -12038,7 +12031,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -12058,7 +12051,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -12078,7 +12071,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -12098,7 +12091,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -12118,7 +12111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -12138,7 +12131,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -12158,7 +12151,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -12178,7 +12171,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -12198,7 +12191,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -12218,7 +12211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -12238,7 +12231,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -12258,7 +12251,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -12278,7 +12271,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -12298,7 +12291,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -12318,7 +12311,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -12338,7 +12331,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -12358,7 +12351,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -12378,7 +12371,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -12398,7 +12391,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -12418,7 +12411,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -12438,7 +12431,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -12458,7 +12451,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -12478,7 +12471,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -12498,7 +12491,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -12518,7 +12511,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -12538,7 +12531,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12558,7 +12551,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12578,7 +12571,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12598,7 +12591,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12618,7 +12611,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12638,7 +12631,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12658,7 +12651,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12678,7 +12671,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12698,7 +12691,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12718,7 +12711,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12738,7 +12731,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12758,7 +12751,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12778,7 +12771,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12798,7 +12791,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12818,7 +12811,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12838,7 +12831,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12858,7 +12851,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12878,7 +12871,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12898,7 +12891,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12918,7 +12911,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12938,7 +12931,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12958,7 +12951,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12978,7 +12971,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -12998,7 +12991,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -13018,7 +13011,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -13038,7 +13031,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -13058,7 +13051,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -13078,7 +13071,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -13098,7 +13091,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -13118,7 +13111,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -13138,7 +13131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -13158,7 +13151,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -13178,7 +13171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -13198,7 +13191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -13218,7 +13211,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -13238,7 +13231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -13258,7 +13251,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -13278,7 +13271,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -13298,7 +13291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -13318,7 +13311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -13338,7 +13331,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -13358,7 +13351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -13378,7 +13371,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -13398,7 +13391,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -13418,7 +13411,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -13438,7 +13431,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -13458,7 +13451,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -13478,7 +13471,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -13498,7 +13491,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -13518,7 +13511,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -13538,7 +13531,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -13558,7 +13551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -13578,7 +13571,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -13598,7 +13591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -13618,7 +13611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -13638,7 +13631,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -13658,7 +13651,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -13678,7 +13671,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -13698,7 +13691,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -13718,7 +13711,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -13738,7 +13731,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -13758,7 +13751,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -13778,7 +13771,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -13798,7 +13791,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -13818,7 +13811,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -13838,7 +13831,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -13858,7 +13851,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -13878,7 +13871,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -13898,7 +13891,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -13918,7 +13911,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -13938,7 +13931,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
@@ -13958,7 +13951,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
@@ -13978,7 +13971,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -13998,7 +13991,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -14018,7 +14011,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -14038,7 +14031,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -14058,7 +14051,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -14078,7 +14071,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -14098,7 +14091,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -14118,7 +14111,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -14138,7 +14131,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -14158,7 +14151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -14178,7 +14171,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -14198,7 +14191,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -14218,7 +14211,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -14238,7 +14231,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -14258,7 +14251,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -14278,7 +14271,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -14298,7 +14291,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
@@ -14318,7 +14311,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -14338,7 +14331,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -14358,7 +14351,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -14378,7 +14371,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
@@ -14398,7 +14391,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -14418,7 +14411,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
@@ -14438,7 +14431,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -14458,7 +14451,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
@@ -14478,7 +14471,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -14498,7 +14491,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
@@ -14518,7 +14511,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
@@ -14538,7 +14531,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
@@ -14558,7 +14551,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -14578,7 +14571,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
@@ -14598,7 +14591,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -14618,7 +14611,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
@@ -14638,7 +14631,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
@@ -14658,7 +14651,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
@@ -14678,7 +14671,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
@@ -14698,7 +14691,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -14718,7 +14711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
@@ -14738,7 +14731,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -14758,7 +14751,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
@@ -14778,7 +14771,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
@@ -14798,7 +14791,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -14818,7 +14811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
@@ -14838,7 +14831,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
@@ -14858,7 +14851,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
@@ -14878,7 +14871,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -14898,7 +14891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
@@ -14918,7 +14911,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
@@ -14938,7 +14931,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
@@ -14958,7 +14951,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
@@ -14978,7 +14971,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -14998,7 +14991,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
@@ -15018,7 +15011,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
@@ -15038,7 +15031,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
@@ -15058,7 +15051,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
@@ -15078,7 +15071,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
@@ -15098,7 +15091,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
@@ -15118,7 +15111,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
@@ -15138,7 +15131,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
@@ -15158,7 +15151,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
@@ -15178,7 +15171,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
@@ -15198,7 +15191,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
@@ -15218,7 +15211,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -15238,7 +15231,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
@@ -15258,7 +15251,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
@@ -15278,7 +15271,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -15298,7 +15291,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -15318,7 +15311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -15338,7 +15331,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
@@ -15358,7 +15351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -15378,7 +15371,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
@@ -15398,7 +15391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -15418,7 +15411,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
@@ -15438,7 +15431,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
@@ -15458,7 +15451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
@@ -15478,7 +15471,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -15498,7 +15491,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
@@ -15518,7 +15511,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -15538,7 +15531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -15558,7 +15551,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -15578,7 +15571,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -15598,7 +15591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -15618,7 +15611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>626</v>
       </c>
@@ -15638,7 +15631,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -15658,7 +15651,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>628</v>
       </c>
@@ -15678,7 +15671,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>629</v>
       </c>
@@ -15698,7 +15691,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>630</v>
       </c>
@@ -15718,7 +15711,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -15738,7 +15731,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>632</v>
       </c>
@@ -15758,7 +15751,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>633</v>
       </c>
@@ -15778,7 +15771,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>634</v>
       </c>
@@ -15798,7 +15791,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>635</v>
       </c>
@@ -15818,7 +15811,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>636</v>
       </c>
@@ -15838,7 +15831,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>637</v>
       </c>
@@ -15858,7 +15851,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -15878,7 +15871,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>639</v>
       </c>
@@ -15898,7 +15891,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -15918,7 +15911,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -15938,7 +15931,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -15958,7 +15951,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>643</v>
       </c>
@@ -15978,7 +15971,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -15998,7 +15991,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>645</v>
       </c>
@@ -16018,7 +16011,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -16038,7 +16031,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>647</v>
       </c>
@@ -16058,7 +16051,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>648</v>
       </c>
@@ -16078,7 +16071,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>649</v>
       </c>
@@ -16098,7 +16091,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>650</v>
       </c>
@@ -16118,7 +16111,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>651</v>
       </c>
@@ -16138,7 +16131,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -16158,7 +16151,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>653</v>
       </c>
@@ -16178,7 +16171,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>654</v>
       </c>
@@ -16198,7 +16191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>655</v>
       </c>
@@ -16218,7 +16211,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -16238,7 +16231,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>657</v>
       </c>
@@ -16258,7 +16251,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -16278,7 +16271,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>659</v>
       </c>
@@ -16298,7 +16291,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>660</v>
       </c>
@@ -16318,7 +16311,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>661</v>
       </c>
@@ -16338,7 +16331,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>662</v>
       </c>
@@ -16358,7 +16351,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>663</v>
       </c>
@@ -16378,7 +16371,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -16398,7 +16391,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -16418,7 +16411,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -16438,7 +16431,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -16458,7 +16451,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>668</v>
       </c>
@@ -16478,7 +16471,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>669</v>
       </c>
@@ -16498,7 +16491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>670</v>
       </c>
@@ -16518,7 +16511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -16538,7 +16531,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>672</v>
       </c>
@@ -16558,7 +16551,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>673</v>
       </c>
@@ -16578,7 +16571,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -16598,7 +16591,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>675</v>
       </c>
@@ -16618,7 +16611,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>676</v>
       </c>
@@ -16638,7 +16631,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>677</v>
       </c>
@@ -16658,7 +16651,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>678</v>
       </c>
@@ -16678,7 +16671,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -16698,7 +16691,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>680</v>
       </c>
@@ -16718,7 +16711,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -16738,7 +16731,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>682</v>
       </c>
@@ -16758,7 +16751,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -16778,7 +16771,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>684</v>
       </c>
@@ -16798,7 +16791,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>685</v>
       </c>
@@ -16818,7 +16811,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -16838,7 +16831,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>687</v>
       </c>
@@ -16858,7 +16851,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>688</v>
       </c>
@@ -16878,7 +16871,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>689</v>
       </c>
@@ -16898,7 +16891,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>690</v>
       </c>
@@ -16918,7 +16911,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -16938,7 +16931,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -16958,7 +16951,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -16978,7 +16971,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>694</v>
       </c>
@@ -16998,7 +16991,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>695</v>
       </c>
@@ -17018,7 +17011,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -17038,7 +17031,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -17058,7 +17051,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -17078,7 +17071,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>699</v>
       </c>
@@ -17098,7 +17091,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -17118,7 +17111,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>701</v>
       </c>
@@ -17138,7 +17131,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -17158,7 +17151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>703</v>
       </c>
@@ -17178,7 +17171,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>704</v>
       </c>
@@ -17198,7 +17191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>705</v>
       </c>
@@ -17218,7 +17211,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>706</v>
       </c>
@@ -17238,7 +17231,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>707</v>
       </c>
@@ -17258,7 +17251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>708</v>
       </c>
@@ -17278,7 +17271,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>709</v>
       </c>
@@ -17298,7 +17291,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>710</v>
       </c>
@@ -17318,7 +17311,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>711</v>
       </c>
@@ -17338,7 +17331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>712</v>
       </c>
@@ -17358,7 +17351,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -17378,7 +17371,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -17398,7 +17391,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -17418,7 +17411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -17438,7 +17431,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -17458,7 +17451,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>718</v>
       </c>
@@ -17478,7 +17471,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -17498,7 +17491,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -17518,7 +17511,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>721</v>
       </c>
@@ -17538,7 +17531,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -17558,7 +17551,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -17578,7 +17571,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>724</v>
       </c>
@@ -17598,7 +17591,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -17618,7 +17611,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -17638,7 +17631,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>727</v>
       </c>
@@ -17658,7 +17651,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>728</v>
       </c>
@@ -17678,7 +17671,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -17698,7 +17691,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -17718,7 +17711,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>731</v>
       </c>
@@ -17738,7 +17731,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>732</v>
       </c>
@@ -17758,7 +17751,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -17778,7 +17771,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>734</v>
       </c>
@@ -17798,7 +17791,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -17818,7 +17811,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -17838,7 +17831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>737</v>
       </c>
@@ -17858,7 +17851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>738</v>
       </c>
@@ -17878,7 +17871,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -17898,7 +17891,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>740</v>
       </c>
@@ -17918,7 +17911,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>741</v>
       </c>
@@ -17938,7 +17931,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -17958,7 +17951,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -17978,7 +17971,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>744</v>
       </c>
@@ -17998,7 +17991,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>745</v>
       </c>
@@ -18018,7 +18011,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>746</v>
       </c>
@@ -18038,7 +18031,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>747</v>
       </c>
@@ -18058,7 +18051,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>748</v>
       </c>
@@ -18078,7 +18071,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>749</v>
       </c>
@@ -18098,7 +18091,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>750</v>
       </c>
@@ -18118,7 +18111,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -18138,7 +18131,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -18158,7 +18151,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -18178,7 +18171,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -18198,7 +18191,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -18218,7 +18211,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
@@ -18238,7 +18231,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
@@ -18258,7 +18251,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
@@ -18278,7 +18271,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -18298,7 +18291,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
@@ -18318,7 +18311,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
@@ -18338,7 +18331,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
@@ -18358,7 +18351,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
@@ -18378,7 +18371,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -18398,7 +18391,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -18418,7 +18411,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>
@@ -18438,7 +18431,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>767</v>
       </c>
@@ -18458,7 +18451,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>768</v>
       </c>
@@ -18478,7 +18471,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>769</v>
       </c>
@@ -18498,7 +18491,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>770</v>
       </c>
@@ -18518,7 +18511,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>771</v>
       </c>
@@ -18538,7 +18531,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>772</v>
       </c>
@@ -18558,7 +18551,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -18578,7 +18571,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -18598,7 +18591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -18618,7 +18611,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>776</v>
       </c>
@@ -18638,7 +18631,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>777</v>
       </c>
@@ -18658,7 +18651,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>778</v>
       </c>
@@ -18678,7 +18671,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>779</v>
       </c>
@@ -18698,7 +18691,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -18718,7 +18711,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -18738,7 +18731,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -18758,7 +18751,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -18778,7 +18771,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -18798,7 +18791,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>785</v>
       </c>
@@ -18818,7 +18811,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>786</v>
       </c>
@@ -18838,7 +18831,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>787</v>
       </c>
@@ -18858,7 +18851,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -18878,7 +18871,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -18898,7 +18891,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>790</v>
       </c>
@@ -18918,7 +18911,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -18938,7 +18931,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>792</v>
       </c>
@@ -18958,7 +18951,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -18978,7 +18971,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>794</v>
       </c>
@@ -18998,7 +18991,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -19018,7 +19011,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>796</v>
       </c>
@@ -19038,7 +19031,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -19058,7 +19051,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>798</v>
       </c>
@@ -19078,7 +19071,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>799</v>
       </c>
@@ -19098,7 +19091,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>800</v>
       </c>
@@ -19118,7 +19111,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>801</v>
       </c>
@@ -19138,7 +19131,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -19158,7 +19151,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -19178,7 +19171,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -19198,7 +19191,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>805</v>
       </c>
@@ -19218,7 +19211,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>806</v>
       </c>
@@ -19238,7 +19231,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -19258,7 +19251,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -19278,7 +19271,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>809</v>
       </c>
@@ -19298,7 +19291,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>810</v>
       </c>
@@ -19318,7 +19311,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>811</v>
       </c>
@@ -19338,7 +19331,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -19358,7 +19351,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>813</v>
       </c>
@@ -19378,7 +19371,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -19398,7 +19391,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>815</v>
       </c>
@@ -19418,7 +19411,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -19438,7 +19431,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>817</v>
       </c>
@@ -19458,7 +19451,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>818</v>
       </c>
@@ -19478,7 +19471,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>819</v>
       </c>
@@ -19498,7 +19491,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>820</v>
       </c>
@@ -19518,7 +19511,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -19538,7 +19531,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -19558,7 +19551,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -19578,7 +19571,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>824</v>
       </c>
@@ -19598,7 +19591,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>825</v>
       </c>
@@ -19618,7 +19611,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>826</v>
       </c>
@@ -19638,7 +19631,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -19658,7 +19651,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>828</v>
       </c>
@@ -19678,7 +19671,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>829</v>
       </c>
@@ -19698,7 +19691,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -19718,7 +19711,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>831</v>
       </c>
@@ -19738,7 +19731,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>832</v>
       </c>
@@ -19758,7 +19751,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>833</v>
       </c>
@@ -19778,7 +19771,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -19798,7 +19791,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>835</v>
       </c>
@@ -19818,7 +19811,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>836</v>
       </c>
@@ -19838,7 +19831,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>837</v>
       </c>
@@ -19858,7 +19851,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>838</v>
       </c>
@@ -19878,7 +19871,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -19898,7 +19891,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>840</v>
       </c>
@@ -19918,7 +19911,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -19938,7 +19931,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>842</v>
       </c>
@@ -19958,7 +19951,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -19978,7 +19971,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -19998,7 +19991,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>845</v>
       </c>
@@ -20018,7 +20011,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>846</v>
       </c>
@@ -20038,7 +20031,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>847</v>
       </c>
@@ -20058,7 +20051,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -20078,7 +20071,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>849</v>
       </c>
@@ -20098,7 +20091,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -20118,7 +20111,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>851</v>
       </c>
@@ -20138,7 +20131,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>852</v>
       </c>
@@ -29737,7 +29730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C2A960-F8A0-4080-979F-D89E63FD0EF6}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Main/static/CSVs/Features List.xlsx
+++ b/Main/static/CSVs/Features List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6689C3-F595-454B-990D-0DF44B2A3607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845A40C-1590-4B21-BE25-8D4B62E0CA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3055,7 +3055,7 @@
   <dimension ref="A1:F909"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8939,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -21262,7 +21262,7 @@
   <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23758,7 +23758,7 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -29725,7 +29725,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30041,7 +30041,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
